--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_encapsulation_test_ni_encapsulation_label_allocation_mode_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_encapsulation_test_ni_encapsulation_label_allocation_mode_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:f6db4ef9-6b24-4305-9964-5ade56508369"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:f693dd02-ccd4-4ec2-af38-a8eff117569b"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
@@ -529,6 +529,7 @@
           &lt;config&gt;
               &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
               &lt;type xmlns:oc-ni-types="http://openconfig.net/yang/network-instance-types"&gt;oc-ni-types:L3VRF&lt;/type&gt;
+              &lt;enabled-address-families xmlns:oc-types="http://openconfig.net/yang/openconfig-types"&gt;oc-types:IPV4&lt;/enabled-address-families&gt;
           &lt;/config&gt;
           &lt;encapsulation&gt;
             &lt;config&gt;
@@ -541,8 +542,54 @@
   &lt;/edit-config&gt;</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:7e56925c-4215-49db-babf-47161cc92757"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
+ - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:1c6a1bbb-ebca-4c03-8c20-57e7a4a42ae4" nc-ext:flow-id="249"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
+</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:9ac1e210-6ced-48ec-9859-ca9b9524ce01"&gt;
+  &lt;data&gt;
+    &lt;network-instances&gt;
+      &lt;network-instance&gt;
+        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+        &lt;config&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;type&gt;oc-ni-types:L3VRF&lt;/type&gt;
+          &lt;enabled-address-families&gt;oc-types:IPV4&lt;/enabled-address-families&gt;
+        &lt;/config&gt;
+        &lt;protocols&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+        &lt;/protocols&gt;
+      &lt;/network-instance&gt;
+    &lt;/network-instances&gt;
+  &lt;/data&gt;
+&lt;/rpc-reply&gt;
+</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
     </row>
   </sheetData>
